--- a/data-raw/data_diagnosis.xlsx
+++ b/data-raw/data_diagnosis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\01_Professional\10_REACH_HQ_WORK\02_efficiency\MSNAdashboardTemplate\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABD122B-4EDB-418B-B450-9C7CF41D3DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573013B8-BF9E-4210-BC6F-FA648B7CCB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dap_for_dashboard" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="904">
   <si>
     <t>sector</t>
   </si>
@@ -3125,7 +3125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F485"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
@@ -11755,9 +11755,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -11774,15 +11779,33 @@
       <c r="A2" t="s">
         <v>881</v>
       </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>895</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>882</v>
       </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>883</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>894</v>
       </c>
     </row>
   </sheetData>
